--- a/resource/0922样本标注.xlsx
+++ b/resource/0922样本标注.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="135">
   <si>
     <t>录音转文字</t>
   </si>
@@ -78,6 +78,21 @@
 坐席: 不不是的，我们是在北一环这边，庐阳区北一环这边。
 用户: 哎，那我电话按错了，你你你那我先我先挂，我可能电话按错了，我先挂啊嗯。
 坐席: 对对对，嗯嗯，好的好的，嗯</t>
+  </si>
+  <si>
+    <t>用户: 啊，怎么哦，喂你好，是那个美奥口腔吗？
+坐席: 喂，你好。
+坐席: 啊，对，请问有什么可以帮您？
+用户: 呃，就是我周六的时候吧，这个时候好像约了今天早上十点半过来，就检查一下牙齿。
+用户: 但是我今天早上有课，就是请问现在过来可以吗？
+坐席: 可以啊，是杨女士吗？
+用户: 嗯，对，喂，你好，呃，我现在坐地铁过来，大概半个小时吧，是吧？
+坐席: 约什么时候？
+坐席: 好的，加你一位啊。
+用户: 啊，什么？
+坐席: 我说就您一位看吧，你你那你先直接过来吧。
+用户: 哦，哦是的是的，行，好好好，谢谢啊。
+坐席: 拜拜</t>
   </si>
   <si>
     <t>用户: 啊，怎么哦，喂你好，是那个美奥口腔吗？
@@ -4724,7 +4739,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4791,7 +4806,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5116,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="325.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="368.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5124,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="381">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="431.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5132,7 +5147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="186.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="210.75">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5142,7 +5157,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="186.75">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -5150,7 +5165,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="1282.5">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -5158,7 +5173,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -5166,7 +5181,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -5174,7 +5189,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -5182,7 +5197,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -5190,7 +5205,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -5198,7 +5213,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -5206,7 +5221,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -5214,7 +5229,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -5222,7 +5237,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -5230,7 +5245,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -5238,7 +5253,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -5246,7 +5261,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
@@ -5254,7 +5269,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>2</v>
@@ -5262,7 +5277,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -5270,7 +5285,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -5278,7 +5293,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
@@ -5286,7 +5301,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -5294,7 +5309,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -5302,7 +5317,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -5310,7 +5325,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -5318,7 +5333,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -5326,7 +5341,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -5334,7 +5349,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -5342,7 +5357,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -5350,7 +5365,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -5358,7 +5373,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -5366,7 +5381,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -5374,7 +5389,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4">
         <v>2</v>
@@ -5382,7 +5397,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -5390,7 +5405,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -5398,7 +5413,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -5406,7 +5421,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -5414,7 +5429,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4">
         <v>2</v>
@@ -5422,7 +5437,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -5430,7 +5445,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -5438,7 +5453,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
@@ -5446,7 +5461,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4">
         <v>2</v>
@@ -5454,7 +5469,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -5462,7 +5477,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -5470,7 +5485,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -5478,7 +5493,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -5486,7 +5501,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -5494,7 +5509,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -5502,7 +5517,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
@@ -5510,7 +5525,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4">
         <v>2</v>
@@ -5518,7 +5533,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -5526,7 +5541,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -5534,7 +5549,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
@@ -5542,7 +5557,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -5550,7 +5565,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
@@ -5558,7 +5573,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -5566,7 +5581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="4">
         <v>2</v>
@@ -5574,7 +5589,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -5582,7 +5597,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -5590,7 +5605,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -5598,7 +5613,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -5606,7 +5621,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="4">
         <v>2</v>
@@ -5614,7 +5629,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" s="4">
         <v>2</v>
@@ -5622,7 +5637,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -5630,7 +5645,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" s="4">
         <v>2</v>
@@ -5638,7 +5653,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" s="4">
         <v>2</v>
@@ -5646,7 +5661,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" s="4">
         <v>2</v>
@@ -5654,7 +5669,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -5662,7 +5677,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -5670,7 +5685,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -5678,7 +5693,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -5686,7 +5701,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -5694,7 +5709,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -5702,7 +5717,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -5710,7 +5725,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -5718,7 +5733,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -5726,7 +5741,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
@@ -5734,7 +5749,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -5742,7 +5757,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -5750,7 +5765,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -5758,7 +5773,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
@@ -5766,7 +5781,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
@@ -5774,7 +5789,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
@@ -5782,7 +5797,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" s="4">
         <v>0</v>
@@ -5790,7 +5805,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
@@ -5798,7 +5813,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4">
         <v>0</v>
@@ -5806,7 +5821,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -5814,7 +5829,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -5822,7 +5837,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B90" s="4">
         <v>0</v>
@@ -5830,7 +5845,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" s="4">
         <v>0</v>
@@ -5838,7 +5853,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" s="4">
         <v>0</v>
@@ -5846,7 +5861,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -5854,7 +5869,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -5862,7 +5877,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="4">
         <v>0</v>
@@ -5870,7 +5885,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4">
         <v>0</v>
@@ -5878,7 +5893,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -5886,7 +5901,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -5894,7 +5909,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B99" s="4">
         <v>0</v>
@@ -5902,7 +5917,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -5910,7 +5925,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -5918,7 +5933,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" s="4">
         <v>0</v>
@@ -5926,7 +5941,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="4">
         <v>0</v>
@@ -5934,7 +5949,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
@@ -5942,7 +5957,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="4">
         <v>1</v>
@@ -5950,7 +5965,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
@@ -5958,7 +5973,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="4">
         <v>0</v>
@@ -5966,7 +5981,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B108" s="4">
         <v>1</v>
@@ -5974,7 +5989,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B109" s="4">
         <v>0</v>
@@ -5982,7 +5997,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B110" s="4">
         <v>1</v>
@@ -5990,7 +6005,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B111" s="4">
         <v>1</v>
@@ -5998,7 +6013,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B112" s="4">
         <v>0</v>
@@ -6006,7 +6021,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B113" s="4">
         <v>0</v>
@@ -6014,7 +6029,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" s="4">
         <v>1</v>
@@ -6022,7 +6037,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" s="4">
         <v>2</v>
@@ -6030,7 +6045,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
@@ -6038,7 +6053,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B117" s="4">
         <v>0</v>
@@ -6046,7 +6061,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B118" s="4">
         <v>1</v>
@@ -6054,7 +6069,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B119" s="4">
         <v>1</v>
@@ -6062,7 +6077,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B120" s="4">
         <v>0</v>
@@ -6070,7 +6085,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B121" s="4">
         <v>0</v>
@@ -6078,7 +6093,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B122" s="4">
         <v>0</v>
@@ -6086,7 +6101,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B123" s="4">
         <v>1</v>
@@ -6094,7 +6109,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B124" s="4">
         <v>2</v>
@@ -6102,7 +6117,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B125" s="4">
         <v>2</v>
@@ -6110,7 +6125,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B126" s="4">
         <v>0</v>
@@ -6118,7 +6133,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B127" s="4">
         <v>1</v>
@@ -6126,7 +6141,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B128" s="4">
         <v>2</v>
@@ -6134,7 +6149,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B129" s="4">
         <v>1</v>
@@ -6142,7 +6157,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B130" s="4">
         <v>2</v>
@@ -6150,7 +6165,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B131" s="4">
         <v>2</v>
@@ -6158,7 +6173,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B132" s="4">
         <v>2</v>
@@ -6166,7 +6181,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B133" s="4">
         <v>0</v>
@@ -6174,7 +6189,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B134" s="4">
         <v>0</v>
@@ -6182,7 +6197,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B135" s="4">
         <v>0</v>
@@ -6190,7 +6205,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B136" s="4">
         <v>0</v>
@@ -6198,7 +6213,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B137" s="4">
         <v>0</v>
@@ -6206,7 +6221,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B138" s="4">
         <v>1</v>
@@ -6214,7 +6229,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B139" s="4">
         <v>1</v>
@@ -6222,7 +6237,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B140" s="4">
         <v>0</v>
@@ -6230,7 +6245,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B141" s="4">
         <v>1</v>
